--- a/forecast_summary_B0CTTWZCVK.xlsx
+++ b/forecast_summary_B0CTTWZCVK.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>-20.28451229606498</v>
       </c>
       <c r="D2" t="n">
-        <v>-17.0281331181695</v>
+        <v>-17.02502947160801</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B760 DS3H AX</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>-52.18607689190495</v>
       </c>
       <c r="D3" t="n">
-        <v>-48.81226003927759</v>
+        <v>-48.86855120825997</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B760 DS3H AX</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>-69.85330244766079</v>
       </c>
       <c r="D4" t="n">
-        <v>-66.75784602533417</v>
+        <v>-66.69099142739708</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B760 DS3H AX</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>-43.81830754905567</v>
       </c>
       <c r="D5" t="n">
-        <v>-40.39839606733165</v>
+        <v>-40.40082033011976</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B760 DS3H AX</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>25.45216587698368</v>
       </c>
       <c r="D6" t="n">
-        <v>28.96553629125767</v>
+        <v>28.82937931449785</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B760 DS3H AX</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>95.35480948051216</v>
       </c>
       <c r="D7" t="n">
-        <v>98.76766801091408</v>
+        <v>98.76306789359371</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B760 DS3H AX</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>111.7919904293392</v>
       </c>
       <c r="D8" t="n">
-        <v>115.1571021832718</v>
+        <v>114.8399685667178</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B760 DS3H AX</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>59.42517887563393</v>
       </c>
       <c r="D9" t="n">
-        <v>62.63903014177456</v>
+        <v>62.81618494023773</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B760 DS3H AX</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>-18.68100114939919</v>
       </c>
       <c r="D10" t="n">
-        <v>-15.15365139601433</v>
+        <v>-15.46335547354958</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B760 DS3H AX</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-56.30935582100898</v>
       </c>
       <c r="D11" t="n">
-        <v>-52.8828885132133</v>
+        <v>-52.82581324323897</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B760 DS3H AX</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-22.79562023019649</v>
       </c>
       <c r="D12" t="n">
-        <v>-19.25835032697055</v>
+        <v>-19.35316610482206</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B760 DS3H AX</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>51.84164439185262</v>
       </c>
       <c r="D13" t="n">
-        <v>55.31957867208695</v>
+        <v>54.9831385679342</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B760 DS3H AX</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>108.3730888449095</v>
       </c>
       <c r="D14" t="n">
-        <v>111.6460692257745</v>
+        <v>111.8569039111285</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B760 DS3H AX</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>112.1268411282852</v>
       </c>
       <c r="D15" t="n">
-        <v>115.4727804448853</v>
+        <v>115.3618273065899</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B760 DS3H AX</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>75.94333330863643</v>
       </c>
       <c r="D16" t="n">
-        <v>79.69392063848885</v>
+        <v>79.2539834425434</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B760 DS3H AX</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>36.4437895412698</v>
       </c>
       <c r="D17" t="n">
-        <v>39.90458601319863</v>
+        <v>40.09984142629698</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B760 DS3H AX</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>16.28509858811902</v>
       </c>
       <c r="D18" t="n">
-        <v>19.65157064785418</v>
+        <v>19.7400550855991</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B760 DS3H AX</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>11.94046787984546</v>
       </c>
       <c r="D19" t="n">
-        <v>15.46231745436529</v>
+        <v>15.49658852173691</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B760 DS3H AX</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>10.7200439998656</v>
       </c>
       <c r="D20" t="n">
-        <v>13.82807922822601</v>
+        <v>13.84492199887008</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B760 DS3H AX</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>8.928639493338437</v>
       </c>
       <c r="D21" t="n">
-        <v>12.2607832366413</v>
+        <v>12.23210226854891</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B760 DS3H AX</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
